--- a/casestudy/css-loader-1261/results.xlsx
+++ b/casestudy/css-loader-1261/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/css-loader-1261/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909465FE-8DF9-F44E-8B05-E94E343690FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9321D7C-9C8D-554B-A1F9-64C15BB135DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -609,9 +609,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -625,6 +622,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,34 +992,34 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>88</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,10 +1069,10 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2"/>
@@ -1081,10 +1081,10 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1092,10 +1092,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1103,10 +1103,10 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1114,10 +1114,10 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1125,10 +1125,10 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1136,10 +1136,10 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1147,10 +1147,10 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1158,10 +1158,10 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1169,10 +1169,10 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1180,10 +1180,10 @@
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,10 +1231,10 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2"/>
@@ -1243,10 +1243,10 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1254,10 +1254,10 @@
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1265,10 +1265,10 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1276,10 +1276,10 @@
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1287,10 +1287,10 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1298,10 +1298,10 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1309,10 +1309,10 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1320,10 +1320,10 @@
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1381,10 +1381,10 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2"/>
@@ -1393,10 +1393,10 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1404,10 +1404,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1415,10 +1415,10 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1426,10 +1426,10 @@
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1437,10 +1437,10 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1448,10 +1448,10 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1459,10 +1459,10 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1470,10 +1470,10 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1481,10 +1481,10 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1492,10 +1492,10 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1503,10 +1503,10 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1514,10 +1514,10 @@
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1564,10 +1564,10 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2"/>
@@ -1576,10 +1576,10 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1587,10 +1587,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1598,10 +1598,10 @@
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1609,10 +1609,10 @@
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1620,10 +1620,10 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1631,10 +1631,10 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1642,10 +1642,10 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1653,10 +1653,10 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1664,10 +1664,10 @@
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1675,10 +1675,10 @@
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1725,10 +1725,10 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1736,10 +1736,10 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1747,10 +1747,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1758,10 +1758,10 @@
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1769,10 +1769,10 @@
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1780,10 +1780,10 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1791,10 +1791,10 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1802,10 +1802,10 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1813,10 +1813,10 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1824,10 +1824,10 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1835,10 +1835,10 @@
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1846,10 +1846,10 @@
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
